--- a/trunk/2012/PhanDoi_1/PD1_C1_1.xlsx
+++ b/trunk/2012/PhanDoi_1/PD1_C1_1.xlsx
@@ -1,29 +1,219 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="711" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="DiemThiDua" sheetId="1" r:id="rId1"/>
+    <sheet name="ThongTinDoi" sheetId="2" r:id="rId2"/>
+    <sheet name="T3-2012" sheetId="3" r:id="rId3"/>
+    <sheet name="T4-2012" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+  <si>
+    <t>Giáo xứ Văn Côi Bình Thuận</t>
+  </si>
+  <si>
+    <t>Xứ đoàn Chúa Hiển Linh</t>
+  </si>
+  <si>
+    <t>LỚP SINH HOẠT</t>
+  </si>
+  <si>
+    <t>BẢNG ĐIỂM THI ĐUA</t>
+  </si>
+  <si>
+    <t>Phân đội</t>
+  </si>
+  <si>
+    <t>Đội</t>
+  </si>
+  <si>
+    <t>Chuyên cần</t>
+  </si>
+  <si>
+    <t>Hoa thiêng</t>
+  </si>
+  <si>
+    <t>Học tập</t>
+  </si>
+  <si>
+    <t>Phục vụ</t>
+  </si>
+  <si>
+    <t>Trò chơi</t>
+  </si>
+  <si>
+    <t>Hành chánh</t>
+  </si>
+  <si>
+    <t>Tổng điểm</t>
+  </si>
+  <si>
+    <t>SIMON HÒA</t>
+  </si>
+  <si>
+    <t>THÔNG TIN ĐỘI</t>
+  </si>
+  <si>
+    <t>TÊN THÁNH</t>
+  </si>
+  <si>
+    <t>HỌ</t>
+  </si>
+  <si>
+    <t>TÊN</t>
+  </si>
+  <si>
+    <t>NGÀY SINH</t>
+  </si>
+  <si>
+    <t>LỚP VH</t>
+  </si>
+  <si>
+    <t>LỚP GL</t>
+  </si>
+  <si>
+    <t>BỔN MẠNG</t>
+  </si>
+  <si>
+    <t>ĐỊA CHỈ</t>
+  </si>
+  <si>
+    <t>GHI CHÚ</t>
+  </si>
+  <si>
+    <t>ĐT LIÊN LẠC</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Vũ Minh </t>
+  </si>
+  <si>
+    <t>Châu</t>
+  </si>
+  <si>
+    <t>281 Tân Kỳ Tân Quý,P.BHHA,Q.Bình Tân</t>
+  </si>
+  <si>
+    <t>Phaolô</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Mạnh </t>
+  </si>
+  <si>
+    <t>Công</t>
+  </si>
+  <si>
+    <t>19/4/8A kp3 p.BHHAq.BTân</t>
+  </si>
+  <si>
+    <t>Giuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Hiền </t>
+  </si>
+  <si>
+    <t>Hòa</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngô Thị </t>
+  </si>
+  <si>
+    <t>Khấn</t>
+  </si>
+  <si>
+    <t>TT2</t>
+  </si>
+  <si>
+    <t>945 Tân Quỳ Tân Quý,KP 2,P.BHH A,Q.BT</t>
+  </si>
+  <si>
+    <t>Đinh Hoàng yến</t>
+  </si>
+  <si>
+    <t>Nhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn </t>
+  </si>
+  <si>
+    <t>Soài</t>
+  </si>
+  <si>
+    <t>CĐ</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>922B Tỉnh lộ 10,P.TT,Q.BT</t>
+  </si>
+  <si>
+    <t>Gioan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Nguyễn Anh </t>
+  </si>
+  <si>
+    <t>Sơn</t>
+  </si>
+  <si>
+    <t>Nguyễn Khánh</t>
+  </si>
+  <si>
+    <t>Trình</t>
+  </si>
+  <si>
+    <t>BĐ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huỳnh Thanh </t>
+  </si>
+  <si>
+    <t>Trúc</t>
+  </si>
+  <si>
+    <t>179/1C Khu phố 3</t>
+  </si>
+  <si>
+    <t>Phan Thanh</t>
+  </si>
+  <si>
+    <t>TẠM NGHỈ</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,14 +236,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +539,468 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <f>SUM(B9:B15)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1">
+        <v>36156</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>40817</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1">
+        <v>35552</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1">
+        <v>40723</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1">
+        <v>35640</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1">
+        <v>34861</v>
+      </c>
+      <c r="G12" s="1">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="1">
+        <v>40770</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1">
+        <v>36239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1">
+        <v>34015</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1">
+        <v>36083</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1">
+        <v>36321</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="1">
+        <v>35981</v>
+      </c>
+      <c r="G17" s="1">
+        <v>8</v>
+      </c>
+      <c r="I17" s="1">
+        <v>40817</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="1">
+        <v>36432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
